--- a/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
+++ b/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
   <si>
     <t>Loureirin A (4'-hydroxy-2,4-dimethoxydihydrochalcone)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2336,8 +2336,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>titles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-O-β-D-glucopyranosyl- furostan-5, 20 (22), 25 (27)-triene-1β, 3β, 26-triol-1-O-［α-L-rhamnopyranosyl (1→2)]α-L-arabinopyranoside</t>
   </si>
 </sst>
 </file>
@@ -2794,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3422,6 +3425,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
+++ b/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>Loureirin A (4'-hydroxy-2,4-dimethoxydihydrochalcone)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,20 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,7,4'-trihydroxy-6-methylflavone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7,4'-dihydroxy-5-methoxy-8-methylflavone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26-O-β-D glucopyranosyl-furostan-5, 25 ( 27)-diene-1β , 3β , 22β , 26-tetrahydroxy-1-O-α-L-arabinopyranoside</t>
-  </si>
-  <si>
-    <t>3,4-Dihydroxy-allybenzene-4-O-β-D-glucopyranoside</t>
-  </si>
-  <si>
     <t>Glycosides</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dracaenoside I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dracaenoside J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dracaenoside R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25 (R) -dracaenoside E</t>
   </si>
   <si>
@@ -216,18 +198,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26-O-β-D grape pyranosyl-furoxane-5,20(22),25(27)-triene-1β,26-triol-1-O-[α-L-rham Pyranosyl (1→2)]-α-L-arabinopyranoside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3，4-二羟基烯丙基苯-4-O-[α-L-鼠李吡喃糖基（1→6）]-β-D-葡萄吡喃糖苷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4-dihydroxyallylbenzene-4-O-[α-L-rhamnopyranosyl (1→6)]-β-D-glucopyranoside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26-O-β-D 葡萄吡喃糖基-呋甾烷-5，25（27）-二烯-1β，3β，22β，26-四醇-1-O-α-L阿拉伯吡喃糖苷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4-dihydroxyallylbenzene-4-O-β-D-glucopyran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-羟基-3,4,5-三甲氧基苯-1-O--α-L-apiopyranosyl-（1→6）-O-β-d-D-吡喃葡萄糖苷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,17 +274,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>octacosyl ferulate</t>
-  </si>
-  <si>
     <t>阿魏酸二十六酯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hexadecyl ferulate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿魏酸二十四酯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,49 +290,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tetrate ferulate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-甲基-7-烯胆烷醇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-methyl-7-encholyl alcohol</t>
-  </si>
-  <si>
     <t>邻苯二甲酸二（2-乙基）乙酯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diethyl phthalate (2-ethyl) ethyl ester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邻苯二甲酸丁酯异丁酯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Butyl phthalate isobutyl ester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3，4-二羟基烯丙基苯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4-dihydroxyallyl benzene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白藜芦醇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resveratrol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对羟基苯甲酸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hydroquinone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原儿茶醛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,23 +342,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cholesterol-4α-methyl-7-ene-3β-ol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胆甾-7-烯-3β-醇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cholester-7-ene-3β-ol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正二十六烷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hexacosane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2332,22 +2256,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh</t>
+    <t>5,7,4'-trihydroxy-6-methylflavone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-O-β-D glucopyranosyl-furostan-5, 25 ( 27)-diene-1β , 3β , 22β , 26-tetrahydroxy-1-O-α-L-arabinopyranoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-Dihydroxy-allybenzene-4-O-β-D-glucopyranoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-hydroxy-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5-trimethoxybenzene-1-O-alpha-L-apiopyranosyl-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-O-β-D-glucopyranoside</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25  (S) -dracaenoside N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dracaenoside I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dracaenoside J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dracaenoside L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dracaenoside R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (R) -dracaenoside E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (R) -dracaenoside F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (R) -dracaenoside G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (R) -dracaenoside H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (S) -dracaenoside E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (S) -dracaenoside F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (S) -dracaenoside G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (S) -dracaenoside H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-O-β-D grape pyranosyl-furoxane-5,20(22),25(27)-triene-1β,26-triol-1-O-[α-L-rham Pyranosyl (1→2)]-α-L-arabinopyranoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-dihydroxyallylbenzene-4-O-[α-L-rhamnopyranosyl (1→6)]-β-D-glucopyranoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-dihydroxyallylbenzene-4-O-β-D-glucopyran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octacosyl ferulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hexadecyl ferulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetrate ferulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-methyl-7-encholyl alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diethyl phthalate (2-ethyl) ethyl ester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butyl phthalate isobutyl ester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-dihydroxyallyl benzene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resveratrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydroquinone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cholesterol-4α-methyl-7-ene-3β-ol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cholester-7-ene-3β-ol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hexacosane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26-O-β-D-glucopyranosyl- furostan-5, 20 (22), 25 (27)-triene-1β, 3β, 26-triol-1-O-［α-L-rhamnopyranosyl (1→2)]α-L-arabinopyranoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,12 +2518,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2387,12 +2526,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2436,32 +2569,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2799,635 +2923,632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="163.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="143.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
+      <c r="A76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>141</v>
+      <c r="B78" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
+++ b/medicine/中药数据/TCMID/龙血竭/龙血竭.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Loureirin A (4'-hydroxy-2,4-dimethoxydihydrochalcone)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>龙血苷 C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dracaenoside C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2486,6 +2482,14 @@
   </si>
   <si>
     <t>Molecule name</t>
+  </si>
+  <si>
+    <t>dracaenoside C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2609,13 +2613,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>273</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
@@ -2921,634 +2925,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="163.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3">
         <v>65</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C67" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C68" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C69" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="3">
         <v>69</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C70" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="3">
         <v>70</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C71" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="3">
         <v>71</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C72" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="3">
         <v>72</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C73" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="3">
         <v>73</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="3">
         <v>75</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C76" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="3">
         <v>76</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
